--- a/034.xlsx
+++ b/034.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup 1\Courses\Power BI &amp; Power Tools\PL-300 Exam\003 - Set\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EE6C1A-3672-4A37-9B94-17181C8BF4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3E0459-B7B2-46A1-99ED-EC196F9049B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Contact ID</t>
   </si>
@@ -255,8 +255,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{56CF8CFD-76AD-43DD-BD3C-6EFF6CD27BC3}" name="Contacts" displayName="Contacts" ref="G1:I9" totalsRowShown="0">
-  <autoFilter ref="G1:I9" xr:uid="{56CF8CFD-76AD-43DD-BD3C-6EFF6CD27BC3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{56CF8CFD-76AD-43DD-BD3C-6EFF6CD27BC3}" name="Contacts" displayName="Contacts" ref="G1:I8" totalsRowShown="0">
+  <autoFilter ref="G1:I8" xr:uid="{56CF8CFD-76AD-43DD-BD3C-6EFF6CD27BC3}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{48E93E3E-669A-4038-A5BD-0E0223A22F07}" name="Customer_Name"/>
     <tableColumn id="2" xr3:uid="{8F25626A-DF9D-4B2E-88AA-481D2967085E}" name="Customer ID"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,13 +698,10 @@
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -721,10 +718,13 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -739,15 +739,6 @@
       </c>
       <c r="D9" t="s">
         <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -771,13 +762,12 @@
     <hyperlink ref="I4" r:id="rId3" display="http://www.123industries.org/" xr:uid="{BD989B07-05A6-4C22-B1D4-B95379AA1D0C}"/>
     <hyperlink ref="I5" r:id="rId4" display="http://www.betasolutions.com/" xr:uid="{B44AFAA6-92BE-4356-9AF6-544D9F470634}"/>
     <hyperlink ref="I6" r:id="rId5" display="http://gamma.enterprises.co.uk/" xr:uid="{B25966AA-6212-4DF5-B939-1F41C068F52B}"/>
-    <hyperlink ref="I7" r:id="rId6" display="http://www.abccorp.com/" xr:uid="{25E74466-9A50-4132-A059-E654F510AA3C}"/>
-    <hyperlink ref="I9" r:id="rId7" display="http://www.one23.com/" xr:uid="{9FE5B5F6-F0A2-469C-BC8B-80782639DE77}"/>
+    <hyperlink ref="I8" r:id="rId6" display="http://www.one23.com/" xr:uid="{9FE5B5F6-F0A2-469C-BC8B-80782639DE77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
+    <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>